--- a/Diseño/DCU_Tablas_Paciente.xlsx
+++ b/Diseño/DCU_Tablas_Paciente.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GabrielaSaldaña\Documents\Escuela\TT1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GabrielaSaldaña\Documents\TT1\TT_1\Diseño\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="83">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -233,18 +233,6 @@
     <t>1.El usuario cierra su sesión.</t>
   </si>
   <si>
-    <t>CASOS DE USO PARA EL PACIENTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGISTRO </t>
-  </si>
-  <si>
-    <t>LISTA VARIABLES DEL PACIENTE Y VISTA DE ESTAS (MENU)</t>
-  </si>
-  <si>
-    <t>CONECTAR DISPOSITIVO NUEVO  (MENU)</t>
-  </si>
-  <si>
     <t>Usuario: Paciente</t>
   </si>
   <si>
@@ -255,32 +243,8 @@
     <t>El usuario introducirá email y su password para iniciar sesión en la aplicación con opción a captcha.</t>
   </si>
   <si>
-    <t>1. El usuario introduce mal alguno de sus datos
-2. El usuario no inicia sesión                                                                        3. Usuario no recuerda algún dato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El usuario debe tener una cuenta de correo electronico. </t>
-  </si>
-  <si>
-    <t>El usuario introducirá algunos datos personales.</t>
-  </si>
-  <si>
-    <t>1. El usuario introduce sus datos personales
-2. El usuario acepta terminos.</t>
-  </si>
-  <si>
-    <t>Los datos no son correctos, registro incompleto</t>
-  </si>
-  <si>
-    <t>El usuario podra visualizar las notificaciones que ha tenido
-además de tener un apartado con sus datos personales donde puede modificarlos, y visualizarr otras opciones del menú.</t>
-  </si>
-  <si>
     <t>El usuario debe haber iniciado sesión correctamente
  y haber entrado a su perfil .</t>
-  </si>
-  <si>
-    <t>LISTA MEDICOS, IMPORTAR LA INFORMACIÓN DEL MEDICO (MENU)</t>
   </si>
   <si>
     <t>El usuario podrá visualizar de lista de
@@ -296,30 +260,7 @@
 3.El usuario regresa a la pantalla principal.</t>
   </si>
   <si>
-    <t>Tener por lo menos una variable activa</t>
-  </si>
-  <si>
     <t>El usuario podrá visulizar todas las variables activas, así como todas las opciones mencionadas.</t>
-  </si>
-  <si>
-    <t>1.Podrá seleccionar una variable de la lista activada.                    2. El usuario podrá visualizar cada variable de forma gráfica asi como ver otras opciones</t>
-  </si>
-  <si>
-    <t>1. La información sale errónea                                                            2. El usuario regresa a la página inicial</t>
-  </si>
-  <si>
-    <t>RF4, RF5, RF7, RF11, RF12</t>
-  </si>
-  <si>
-    <t>El usuario puede agregar el dispositivo al sistema de una forma sencilla y útil</t>
-  </si>
-  <si>
-    <t>1.El usuario no wncuentra como agregar dispositivo.
-2.El ususario decide no agregar el dispositivo adicional.</t>
-  </si>
-  <si>
-    <t>1.La aplicación falla al momento de agregar el dispositivo.
-2.La aplicación no permite agregar dispositivos adicionales.</t>
   </si>
   <si>
     <t>El usuario podrá recibir por medio de su correo electronico su contraseña.</t>
@@ -341,22 +282,44 @@
     <t xml:space="preserve"> RF3, RF9</t>
   </si>
   <si>
-    <t>Haber iniciado sesion correctamente y tener conectado el dispositivo físico correctamente, asi como su variable asociada</t>
-  </si>
-  <si>
-    <t>1. El usuario selecciona la opción de conectar nuevo dispositivo.
-2. Busca el dispositivo instalado previamente por el médico.
-3. Se reconocerá el dispositivo y se podrá mostrar la info.                       4. El usuario puede agregar variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  RF2,  RF9</t>
+    <t>CASOS DE USO PARA EL PACIENTE (O EN SU DEFECTO AQUELLA PERSONA EN CARGADA DEL PACIENTE)</t>
+  </si>
+  <si>
+    <t>El usuario podra visualizar las notificaciones que ha tenido
+además de tener un apartado con sus datos personales donde puede modificarlos, ir a su lista de variables y ver a sus medicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Se despliega un menu
+2. Se despliega una lista de notificaciones </t>
+  </si>
+  <si>
+    <t>Haber tenido una cita previa con el medico, y que este lo haya registrado.</t>
+  </si>
+  <si>
+    <t>1.Podrá seleccionar una variable de la lista activada.                             2. El usuario podrá visualizar cada variable de forma gráfica asi como ver otras opciones</t>
+  </si>
+  <si>
+    <t>1. La información sale errónea                                                                 2. El usuario regresa a la página inicial</t>
+  </si>
+  <si>
+    <t>1. El usuario introduce mal alguno de sus datos
+2. El usuario no inicia sesión                                                                               3. Usuario no recuerda algún dato</t>
+  </si>
+  <si>
+    <t>Usuario: Paciente y Médico</t>
+  </si>
+  <si>
+    <t>LISTA MEDICOS(MENU)</t>
+  </si>
+  <si>
+    <t>LISTA VARIABLES DEL PACIENTE  (MENU)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +343,13 @@
     <font>
       <sz val="22"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -429,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -444,6 +414,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1188,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,8 +1174,12 @@
   <sheetData>
     <row r="1" spans="2:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C1" s="7" t="s">
-        <v>59</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1213,68 +1188,45 @@
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>93</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>63</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
@@ -1283,26 +1235,18 @@
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="2:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
@@ -1311,12 +1255,7 @@
       <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="F10" s="1"/>
     </row>
     <row r="13" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
@@ -1343,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1351,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>2</v>
@@ -1379,7 +1318,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -1393,7 +1332,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>4</v>
@@ -1435,13 +1374,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1455,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1463,13 +1402,13 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1477,13 +1416,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1491,13 +1430,13 @@
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1505,13 +1444,13 @@
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1519,13 +1458,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1543,12 +1482,8 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="6"/>
       <c r="F33" s="1" t="s">
         <v>0</v>
       </c>
@@ -1557,40 +1492,26 @@
       </c>
     </row>
     <row r="34" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>81</v>
-      </c>
+      <c r="B34" s="1"/>
       <c r="F34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>63</v>
-      </c>
+      <c r="B35" s="1"/>
       <c r="F35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="2"/>
       <c r="F36" s="1" t="s">
         <v>3</v>
       </c>
@@ -1599,40 +1520,28 @@
       </c>
     </row>
     <row r="37" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="2"/>
       <c r="F37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="2"/>
       <c r="F38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="2"/>
       <c r="F39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1641,12 +1550,8 @@
       </c>
     </row>
     <row r="40" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="2"/>
       <c r="F40" s="1" t="s">
         <v>7</v>
       </c>
@@ -1656,6 +1561,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Diseño/DCU_Tablas_Paciente.xlsx
+++ b/Diseño/DCU_Tablas_Paciente.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="90">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -285,10 +285,6 @@
     <t>CASOS DE USO PARA EL PACIENTE (O EN SU DEFECTO AQUELLA PERSONA EN CARGADA DEL PACIENTE)</t>
   </si>
   <si>
-    <t>El usuario podra visualizar las notificaciones que ha tenido
-además de tener un apartado con sus datos personales donde puede modificarlos, ir a su lista de variables y ver a sus medicos.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Se despliega un menu
 2. Se despliega una lista de notificaciones </t>
   </si>
@@ -312,7 +308,33 @@
     <t>LISTA MEDICOS(MENU)</t>
   </si>
   <si>
-    <t>LISTA VARIABLES DEL PACIENTE  (MENU)</t>
+    <t>PÀGINA DE INICIO/LOGIN</t>
+  </si>
+  <si>
+    <t>El usuario podrá recibir y eliminar  notificaciones a cerca de sucesos importantes.</t>
+  </si>
+  <si>
+    <t>MEDICIONES  (MENU)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+El usuario podra visualizar las mediciones que ha tenido además de tener un apartado con sus datos personales donde puede modificarlos, ir a su lista de variables , ver a sus medicos  y sus notificaciones.</t>
+  </si>
+  <si>
+    <t>MENU  (PRINCIPAL)</t>
+  </si>
+  <si>
+    <t>DATOS PERSONALES</t>
+  </si>
+  <si>
+    <t>RF9, RF17,RF3</t>
+  </si>
+  <si>
+    <t>El usuario podra visualizar  y modificar sus datos personales.</t>
+  </si>
+  <si>
+    <t>1. El usuario inicia sesión
+2. El usuario sedrige al apartado de datos personales</t>
   </si>
 </sst>
 </file>
@@ -1159,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="C33" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,10 +1208,14 @@
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -1198,16 +1224,26 @@
       <c r="C4" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="6" spans="2:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
@@ -1216,8 +1252,12 @@
       <c r="C6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="7" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
@@ -1226,7 +1266,12 @@
       <c r="C7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="8" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
@@ -1235,18 +1280,26 @@
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="9" spans="2:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
@@ -1255,14 +1308,19 @@
       <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -1299,7 +1357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
@@ -1313,18 +1371,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1332,7 +1390,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>4</v>
@@ -1374,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1422,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1450,7 +1508,7 @@
         <v>4</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1464,7 +1522,7 @@
         <v>6</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1506,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">

--- a/Diseño/DCU_Tablas_Paciente.xlsx
+++ b/Diseño/DCU_Tablas_Paciente.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GabrielaSaldaña\Documents\TT1\TT_1\Diseño\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejandra\Desktop\TT1\Gab-Mel\TT_1\Diseño\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="91">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -236,10 +236,6 @@
     <t>Usuario: Paciente</t>
   </si>
   <si>
-    <t>Tener instalad la aplicación.                                                                       Tener acceso a internet.
-Tener una cuenta previamente registrada.</t>
-  </si>
-  <si>
     <t>El usuario introducirá email y su password para iniciar sesión en la aplicación con opción a captcha.</t>
   </si>
   <si>
@@ -260,9 +256,6 @@
 3.El usuario regresa a la pantalla principal.</t>
   </si>
   <si>
-    <t>El usuario podrá visulizar todas las variables activas, así como todas las opciones mencionadas.</t>
-  </si>
-  <si>
     <t>El usuario podrá recibir por medio de su correo electronico su contraseña.</t>
   </si>
   <si>
@@ -276,71 +269,83 @@
     <t>RF3</t>
   </si>
   <si>
-    <t>RF5, RF15</t>
-  </si>
-  <si>
     <t xml:space="preserve"> RF3, RF9</t>
   </si>
   <si>
     <t>CASOS DE USO PARA EL PACIENTE (O EN SU DEFECTO AQUELLA PERSONA EN CARGADA DEL PACIENTE)</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Se despliega un menu
-2. Se despliega una lista de notificaciones </t>
-  </si>
-  <si>
-    <t>Haber tenido una cita previa con el medico, y que este lo haya registrado.</t>
-  </si>
-  <si>
-    <t>1.Podrá seleccionar una variable de la lista activada.                             2. El usuario podrá visualizar cada variable de forma gráfica asi como ver otras opciones</t>
-  </si>
-  <si>
-    <t>1. La información sale errónea                                                                 2. El usuario regresa a la página inicial</t>
+    <t>Usuario: Paciente y Médico</t>
+  </si>
+  <si>
+    <t>LISTA MEDICOS(MENU)</t>
+  </si>
+  <si>
+    <t>RF9, RF17,RF3</t>
+  </si>
+  <si>
+    <t>El usuario podra visualizar  y modificar sus datos personales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Usuario: Paciente o asesor</t>
+  </si>
+  <si>
+    <t>Tener instalada la aplicación.                                                                                 Tener acceso a internet.
+Tener una cuenta previamente registrada.</t>
   </si>
   <si>
     <t>1. El usuario introduce mal alguno de sus datos
-2. El usuario no inicia sesión                                                                               3. Usuario no recuerda algún dato</t>
-  </si>
-  <si>
-    <t>Usuario: Paciente y Médico</t>
-  </si>
-  <si>
-    <t>LISTA MEDICOS(MENU)</t>
-  </si>
-  <si>
-    <t>PÀGINA DE INICIO/LOGIN</t>
-  </si>
-  <si>
-    <t>El usuario podrá recibir y eliminar  notificaciones a cerca de sucesos importantes.</t>
-  </si>
-  <si>
-    <t>MEDICIONES  (MENU)</t>
+2. El usuario no inicia sesión                                                                                             3. Usuario no recuerda algún dato</t>
+  </si>
+  <si>
+    <t>La aplicación no está disponible o no responde</t>
+  </si>
+  <si>
+    <t>Tener instalada la aplicación.                                                                       Tener acceso a internet.
+Tener una cuenta previamente registrada.</t>
+  </si>
+  <si>
+    <t>1. El usuario inicia sesión
+2. El usuario se dirige al apartado de datos personales</t>
+  </si>
+  <si>
+    <t>1. El usuario introduce mal alguno de sus datos.
+2. El usuario no inicia sesión.                                                                               3. Usuario no recuerda algún dato.                                                                   4. El usuario modifica mal algún dato.</t>
+  </si>
+  <si>
+    <t>1. La aplicación no está disponible.                                                                  2. Los datos modificados no se guardan exitosamente</t>
+  </si>
+  <si>
+    <t>DATOS PERSONALES(MENU)</t>
+  </si>
+  <si>
+    <t>NOTIFICACIONES (MENU)</t>
+  </si>
+  <si>
+    <t>MENU_VARIABLES (PRINCIPAL)</t>
   </si>
   <si>
     <t xml:space="preserve">
-El usuario podra visualizar las mediciones que ha tenido además de tener un apartado con sus datos personales donde puede modificarlos, ir a su lista de variables , ver a sus medicos  y sus notificaciones.</t>
-  </si>
-  <si>
-    <t>MENU  (PRINCIPAL)</t>
-  </si>
-  <si>
-    <t>DATOS PERSONALES</t>
-  </si>
-  <si>
-    <t>RF9, RF17,RF3</t>
-  </si>
-  <si>
-    <t>El usuario podra visualizar  y modificar sus datos personales.</t>
-  </si>
-  <si>
-    <t>1. El usuario inicia sesión
-2. El usuario sedrige al apartado de datos personales</t>
+El usuario podra visualizar las mediciones que ha tenido de sus variables, además de tener un apartado con sus datos personales donde puede modificarlos, ver a sus medicos  y  sus notificaciones.</t>
+  </si>
+  <si>
+    <t>1. Se despliega un menu
+2. Se despliegan los datos de sus variables monitoreadas</t>
+  </si>
+  <si>
+    <t>La aplicación no muestra la información, o la muestra incompleta</t>
+  </si>
+  <si>
+    <t>El usuario podrá ver y eliminar  notificaciones a cerca de sucesos importantes, según el sistema.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1179,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G40"/>
+  <dimension ref="B1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C33" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,86 +1199,86 @@
     <col min="7" max="7" width="62.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C1" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1284,10 +1289,10 @@
         <v>4</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1298,38 +1303,41 @@
         <v>6</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="30.75" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1340,10 +1348,10 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1357,7 +1365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
@@ -1376,13 +1384,13 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1390,7 +1398,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>4</v>
@@ -1418,7 +1426,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>7</v>
@@ -1427,18 +1435,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1452,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1466,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1474,13 +1482,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1488,13 +1496,13 @@
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1502,13 +1510,13 @@
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1516,13 +1524,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1536,87 +1544,15 @@
         <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="1"/>
-      <c r="C33" s="6"/>
-      <c r="F33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B34" s="1"/>
-      <c r="F34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B35" s="1"/>
-      <c r="F35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
-      <c r="F36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="1"/>
-      <c r="C37" s="2"/>
-      <c r="F37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
-      <c r="F38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-      <c r="F39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
-      <c r="F40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" t="s">
         <v>57</v>
       </c>
     </row>
+    <row r="33" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="65.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>

--- a/Diseño/DCU_Tablas_Paciente.xlsx
+++ b/Diseño/DCU_Tablas_Paciente.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="91">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -305,25 +305,13 @@
     <t>Usuario: Paciente y Médico</t>
   </si>
   <si>
-    <t>LISTA MEDICOS(MENU)</t>
-  </si>
-  <si>
-    <t>PÀGINA DE INICIO/LOGIN</t>
-  </si>
-  <si>
     <t>El usuario podrá recibir y eliminar  notificaciones a cerca de sucesos importantes.</t>
-  </si>
-  <si>
-    <t>MEDICIONES  (MENU)</t>
   </si>
   <si>
     <t xml:space="preserve">
 El usuario podra visualizar las mediciones que ha tenido además de tener un apartado con sus datos personales donde puede modificarlos, ir a su lista de variables , ver a sus medicos  y sus notificaciones.</t>
   </si>
   <si>
-    <t>MENU  (PRINCIPAL)</t>
-  </si>
-  <si>
     <t>DATOS PERSONALES</t>
   </si>
   <si>
@@ -335,6 +323,21 @@
   <si>
     <t>1. El usuario inicia sesión
 2. El usuario sedrige al apartado de datos personales</t>
+  </si>
+  <si>
+    <t>MENÚ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTIFICACIÓNES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDICIÓNES </t>
+  </si>
+  <si>
+    <t>LISTA MÉDICOS</t>
+  </si>
+  <si>
+    <t>RECUPERAR  CONTRASEÑA</t>
   </si>
 </sst>
 </file>
@@ -1181,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C33" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,13 +1211,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1228,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1270,7 +1273,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1284,7 +1287,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1320,13 +1323,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1376,13 +1379,13 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1432,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1546,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
